--- a/downloaded_files/EECS101_Lecture-35272.xlsx
+++ b/downloaded_files/EECS101_Lecture-35272.xlsx
@@ -225,7 +225,7 @@
     <x:t>4230152</x:t>
   </x:si>
   <x:si>
-    <x:t>عبدالرحمن محمد عبدالرؤف عبدالرؤف اسماعيل</x:t>
+    <x:t>عبدالرحمن محمد عبدالرؤوف عبدالرؤوف اسماعيل</x:t>
   </x:si>
   <x:si>
     <x:t>ABDELRAHMAN MOHAMED ABDELRAOUF ABDELRAOUF ISMAIL</x:t>
@@ -751,7 +751,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.130625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="36.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="56.170625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>

--- a/downloaded_files/EECS101_Lecture-35272.xlsx
+++ b/downloaded_files/EECS101_Lecture-35272.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,15 +310,6 @@
   </x:si>
   <x:si>
     <x:t>YASSEN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يسي رزق لمعي رزق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yassa rizk lamey rizk</x:t>
   </x:si>
   <x:si>
     <x:t>1230293</x:t>
@@ -443,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1826,7 +1817,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4195636921</x:v>
+        <x:v>45907.4184601852</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1843,38 +1834,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.4184601852</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Lecture-35272.xlsx
+++ b/downloaded_files/EECS101_Lecture-35272.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Akmal mohamed emad esmat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ايه احمد محمد احمد حسن خشبه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AYA AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>1230318</x:t>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1049,7 +1058,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4181060185</x:v>
+        <x:v>45927.421352662</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1081,7 +1090,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4145217593</x:v>
+        <x:v>45907.4181060185</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1113,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.1124877315</x:v>
+        <x:v>45907.4145217593</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1145,7 +1154,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.112350463</x:v>
+        <x:v>45912.1124877315</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1177,7 +1186,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4203944444</x:v>
+        <x:v>45912.112350463</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1209,7 +1218,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45907.4203944444</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1241,7 +1250,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4142248032</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1273,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.419643206</x:v>
+        <x:v>45907.4142248032</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1305,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6717753819</x:v>
+        <x:v>45907.419643206</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1337,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.420984838</x:v>
+        <x:v>45907.6717753819</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1369,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4153404282</x:v>
+        <x:v>45907.420984838</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4214495718</x:v>
+        <x:v>45907.4153404282</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6653260417</x:v>
+        <x:v>45909.4214495718</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4144263889</x:v>
+        <x:v>45907.6653260417</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4142324074</x:v>
+        <x:v>45907.4144263889</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4149399653</x:v>
+        <x:v>45907.4142324074</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45907.4149399653</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4144276273</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6687470718</x:v>
+        <x:v>45907.4144276273</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.1127318287</x:v>
+        <x:v>45907.6687470718</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.4378818634</x:v>
+        <x:v>45927.4390959143</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.414816169</x:v>
+        <x:v>45914.4378818634</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45907.414816169</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4184601852</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1834,6 +1843,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.4184601852</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Lecture-35272.xlsx
+++ b/downloaded_files/EECS101_Lecture-35272.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Samy Abdelbaky Mohamed Saleh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين سامى حموده بكر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1230310</x:t>
@@ -443,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1826,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45928.9277546643</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4184601852</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1885,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.4184601852</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Electronics-1: Basic Electronic Circuits (EECS101) Location : [20104]20104-45-الجيزة الرئيسي Time : Wednesday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EECS101_Lecture-35272.xlsx
+++ b/downloaded_files/EECS101_Lecture-35272.xlsx
@@ -141,15 +141,6 @@
     <x:t>kheder Yousef kheder sabrah</x:t>
   </x:si>
   <x:si>
-    <x:t>1230181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>داني فادي فاروق سعد بشاي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dani Fadi Farouk Saad Beshay</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230184</x:t>
   </x:si>
   <x:si>
@@ -328,6 +319,15 @@
   </x:si>
   <x:si>
     <x:t>YASSEN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يسي رزق لمعي رزق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yassa rizk lamey rizk</x:t>
   </x:si>
   <x:si>
     <x:t>1230293</x:t>
@@ -1227,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4203944444</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1259,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45907.4142248032</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1291,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4142248032</x:v>
+        <x:v>45907.419643206</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.419643206</x:v>
+        <x:v>45907.6717753819</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6717753819</x:v>
+        <x:v>45907.420984838</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.420984838</x:v>
+        <x:v>45907.4153404282</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4153404282</x:v>
+        <x:v>45909.4214495718</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4214495718</x:v>
+        <x:v>45907.6653260417</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6653260417</x:v>
+        <x:v>45907.4144263889</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4144263889</x:v>
+        <x:v>45907.4142324074</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4142324074</x:v>
+        <x:v>45907.4149399653</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4149399653</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45907.4144276273</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4144276273</x:v>
+        <x:v>45907.6687470718</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6687470718</x:v>
+        <x:v>45927.4390959143</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4390959143</x:v>
+        <x:v>45914.4378818634</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.4378818634</x:v>
+        <x:v>45907.414816169</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.414816169</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45928.9277546643</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45928.9277546643</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45929.3119977199</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>

--- a/downloaded_files/EECS101_Lecture-35272.xlsx
+++ b/downloaded_files/EECS101_Lecture-35272.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>hassan amr mostafa mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حنين الظافر مصطفى أحمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Haneen ElZafer Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>2230004</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1195,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.112350463</x:v>
+        <x:v>45931.4526235764</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1227,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45912.112350463</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4142248032</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.419643206</x:v>
+        <x:v>45907.4142248032</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6717753819</x:v>
+        <x:v>45907.419643206</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.420984838</x:v>
+        <x:v>45907.6717753819</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4153404282</x:v>
+        <x:v>45907.420984838</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4214495718</x:v>
+        <x:v>45907.4153404282</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6653260417</x:v>
+        <x:v>45909.4214495718</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4144263889</x:v>
+        <x:v>45907.6653260417</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4142324074</x:v>
+        <x:v>45907.4144263889</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4149399653</x:v>
+        <x:v>45907.4142324074</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45907.4149399653</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4144276273</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6687470718</x:v>
+        <x:v>45907.4144276273</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4390959143</x:v>
+        <x:v>45907.6687470718</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.4378818634</x:v>
+        <x:v>45927.4390959143</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.414816169</x:v>
+        <x:v>45914.4378818634</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45907.414816169</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45928.9277546643</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45928.9277546643</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45929.3119977199</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4184601852</x:v>
+        <x:v>45929.3119977199</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1925,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.4184601852</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Lecture-35272.xlsx
+++ b/downloaded_files/EECS101_Lecture-35272.xlsx
@@ -210,7 +210,7 @@
     <x:t>عبدالرحمن احمد محمد صلاح الدين علي رجب</x:t>
   </x:si>
   <x:si>
-    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali</x:t>
+    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali Rajab</x:t>
   </x:si>
   <x:si>
     <x:t>4240024</x:t>
@@ -228,7 +228,7 @@
     <x:t>عبدالرحمن خالد محمد فصيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Abd Elrahman Khaled Mohamed</x:t>
+    <x:t>Abd Elrahman Khaled Mohamed Faseeh</x:t>
   </x:si>
   <x:si>
     <x:t>4230152</x:t>
@@ -288,10 +288,10 @@
     <x:t>1230226</x:t>
   </x:si>
   <x:si>
-    <x:t>كريم طارق عبد الله عبد الحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Tarek Abdalla</x:t>
+    <x:t>كريم طارق عبد الله عبد الحليم عبدالمنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Tarek Abdullah Abdelhalim Abdelmonem</x:t>
   </x:si>
   <x:si>
     <x:t>1230239</x:t>

--- a/downloaded_files/EECS101_Lecture-35272.xlsx
+++ b/downloaded_files/EECS101_Lecture-35272.xlsx
@@ -39,7 +39,7 @@
     <x:t>أحمد محمد سيد صابر محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Sayed Saber</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Sayed Saber Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1230153</x:t>
@@ -111,7 +111,7 @@
     <x:t>بيشوي ماهر فؤاد بدرس بدروس</x:t>
   </x:si>
   <x:si>
-    <x:t>Beshoy Maher Fouad Badras</x:t>
+    <x:t>Beshoy Maher Fouad Badras Badros</x:t>
   </x:si>
   <x:si>
     <x:t>1230175</x:t>
